--- a/pesos/pesos.xlsx
+++ b/pesos/pesos.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ba5887f9c16091d/Área de Trabalho/asset alocation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hub-do-investidor\pesos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{E2715F5E-1539-4436-980A-32AB69351920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{946168BC-A365-43B8-929D-253B1350723D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{FD876722-7503-49E2-B52D-809F469D3B9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="regras" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,13 +68,13 @@
     <t>data fim</t>
   </si>
   <si>
-    <t>diferente do arquivo de ações, utilizar data fim batendo entre as abas</t>
+    <t>A data inicio deve ser no dia seguinte da data fim anterior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -425,11 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E75C9DA-8CA2-425B-B501-8B159B0D1AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC5B30D-4A00-4DCE-AEEB-766EE218DE0F}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +558,7 @@
         <v>0.44284074123623207</v>
       </c>
       <c r="C2" s="2">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="D2" s="2">
         <v>44743</v>
@@ -604,6 +603,9 @@
       <c r="B7" s="1">
         <v>7.8881881521986413E-2</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -611,17 +613,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046E8D03-7FE6-4EF1-B6C5-27F11E27C979}">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
